--- a/tests/data.gui/test/concentrations/ds.3p.long/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p.long/kev.concentrations.data.xlsx
@@ -9,10 +9,11 @@
     <sheet name="input_stoich_coefficients" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="input_k_constants_log10" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="input_concentrations" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="equilibrium_concentrations" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="PO4_fractions" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="percent_error" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="component_names" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="total_concentrations" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="equilibrium_concentrations" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="PO4_fractions" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="percent_error" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="component_names" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
 </workbook>
 </file>
@@ -724,142 +725,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.80943632379332e-08</v>
+        <v>0.01</v>
       </c>
       <c r="B2" t="n">
-        <v>9.65605589853937e-08</v>
+        <v>0.01</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00204819060889269</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.001760599157834</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.000377156162615975</v>
-      </c>
-      <c r="F2" t="n">
-        <v>9.06529469901188e-10</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.000407858626114068</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.00719500102786287</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.07532896657194e-05</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.000318193533983783</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.91348500505883e-09</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000120917934998623</v>
+        <v>0.02</v>
       </c>
       <c r="B3" t="n">
-        <v>1.90514074732895e-13</v>
+        <v>0.01</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00756941497035161</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.10259949102851e-05</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00749736249731318</v>
-      </c>
-      <c r="F3" t="n">
-        <v>5.72004217964654e-05</v>
-      </c>
-      <c r="G3" t="n">
-        <v>4.74866565713707e-07</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.000166525253113294</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.00225928398726249</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4.6120912384179e-08</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4.25480179453478e-06</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00739964363187125</v>
+        <v>0.03</v>
       </c>
       <c r="B4" t="n">
-        <v>3.78258969182908e-17</v>
+        <v>0.01</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00817991599278833</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.33967680846102e-07</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00557456320335912</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.00260268523484192</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.38567523850154e-09</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.18649698464737e-06</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.00181534714818147</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7.35781598213748e-12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.54197064561926e-06</v>
+        <v>0.01</v>
       </c>
     </row>
   </sheetData>
@@ -878,13 +783,13 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>11</v>
@@ -896,112 +801,124 @@
         <v>13</v>
       </c>
       <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s">
-        <v>23</v>
+      <c r="A2" t="n">
+        <v>3.80943632379332e-08</v>
+      </c>
+      <c r="B2" t="n">
+        <v>9.65605589853937e-08</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.00204819060889269</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.001760599157834</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.000377156162615975</v>
+      </c>
+      <c r="F2" t="n">
+        <v>9.06529469901188e-10</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.000407858626114068</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.00719500102786287</v>
+      </c>
+      <c r="I2" t="n">
+        <v>3.07532896657194e-05</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.000318193533983783</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.91348500505883e-09</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>36</v>
+      <c r="A3" t="n">
+        <v>0.000120917934998623</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.90514074732895e-13</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.00756941497035161</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.10259949102851e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.00749736249731318</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.72004217964654e-05</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.74866565713707e-07</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.000166525253113294</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.00225928398726249</v>
+      </c>
+      <c r="J3" t="n">
+        <v>4.6120912384179e-08</v>
+      </c>
+      <c r="K3" t="n">
+        <v>4.25480179453478e-06</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
+      <c r="A4" t="n">
+        <v>0.00739964363187125</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.78258969182908e-17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.00817991599278833</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.33967680846102e-07</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.00557456320335912</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.00260268523484192</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.38567523850154e-09</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.18649698464737e-06</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.00181534714818147</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.35781598213748e-12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.54197064561926e-06</v>
       </c>
     </row>
   </sheetData>
@@ -1020,46 +937,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>5.4227455859035e-13</v>
-      </c>
-      <c r="B2" t="n">
-        <v>4.59528248786256e-13</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.13558076672871e-13</v>
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>6.76542155630955e-15</v>
-      </c>
-      <c r="B3" t="n">
-        <v>6.76542155630955e-15</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2.25514051876985e-15</v>
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>5.25551130392543e-10</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7.05490353636318e-10</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.63312245671232e-10</v>
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1078,6 +1079,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5.4227455859035e-13</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.59528248786256e-13</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.13558076672871e-13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6.76542155630955e-15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6.76542155630955e-15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.25514051876985e-15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5.25551130392543e-10</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.05490353636318e-10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.63312245671232e-10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/tests/data.gui/test/concentrations/ds.3p.long/kev.concentrations.data.xlsx
+++ b/tests/data.gui/test/concentrations/ds.3p.long/kev.concentrations.data.xlsx
@@ -818,10 +818,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.80943632379332e-08</v>
+        <v>0.0000000380943632379329</v>
       </c>
       <c r="B2" t="n">
-        <v>9.65605589853937e-08</v>
+        <v>0.000000096560558985394</v>
       </c>
       <c r="C2" t="n">
         <v>0.00204819060889269</v>
@@ -830,48 +830,48 @@
         <v>0.001760599157834</v>
       </c>
       <c r="E2" t="n">
-        <v>0.000377156162615975</v>
+        <v>0.00037715616261597</v>
       </c>
       <c r="F2" t="n">
-        <v>9.06529469901188e-10</v>
+        <v>0.000000000906529469901175</v>
       </c>
       <c r="G2" t="n">
-        <v>0.000407858626114068</v>
+        <v>0.000407858626114071</v>
       </c>
       <c r="H2" t="n">
         <v>0.00719500102786287</v>
       </c>
       <c r="I2" t="n">
-        <v>3.07532896657194e-05</v>
+        <v>0.0000307532896657189</v>
       </c>
       <c r="J2" t="n">
         <v>0.000318193533983783</v>
       </c>
       <c r="K2" t="n">
-        <v>2.91348500505883e-09</v>
+        <v>0.00000000291348500505875</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.000120917934998623</v>
+        <v>0.000120917934998622</v>
       </c>
       <c r="B3" t="n">
-        <v>1.90514074732895e-13</v>
+        <v>0.000000000000190514074732898</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00756941497035161</v>
+        <v>0.0075694149703516</v>
       </c>
       <c r="D3" t="n">
-        <v>1.10259949102851e-05</v>
+        <v>0.0000110259949102851</v>
       </c>
       <c r="E3" t="n">
         <v>0.00749736249731318</v>
       </c>
       <c r="F3" t="n">
-        <v>5.72004217964654e-05</v>
+        <v>0.0000572004217964645</v>
       </c>
       <c r="G3" t="n">
-        <v>4.74866565713707e-07</v>
+        <v>0.000000474866565713712</v>
       </c>
       <c r="H3" t="n">
         <v>0.000166525253113294</v>
@@ -880,45 +880,45 @@
         <v>0.00225928398726249</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6120912384179e-08</v>
+        <v>0.000000046120912384179</v>
       </c>
       <c r="K3" t="n">
-        <v>4.25480179453478e-06</v>
+        <v>0.00000425480179453478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.00739964363187125</v>
+        <v>0.00739964363187146</v>
       </c>
       <c r="B4" t="n">
-        <v>3.78258969182908e-17</v>
+        <v>0.0000000000000000378258969182435</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00817991599278833</v>
+        <v>0.00817991599278782</v>
       </c>
       <c r="D4" t="n">
-        <v>1.33967680846102e-07</v>
+        <v>0.000000133967680845938</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00557456320335912</v>
+        <v>0.00557456320335246</v>
       </c>
       <c r="F4" t="n">
-        <v>0.00260268523484192</v>
+        <v>0.00260268523483888</v>
       </c>
       <c r="G4" t="n">
-        <v>8.38567523850154e-09</v>
+        <v>0.00000000838567523850077</v>
       </c>
       <c r="H4" t="n">
-        <v>2.18649698464737e-06</v>
+        <v>0.00000218649698464457</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00181534714818147</v>
+        <v>0.0018153471481792</v>
       </c>
       <c r="J4" t="n">
-        <v>7.35781598213748e-12</v>
+        <v>0.00000000000735781598211897</v>
       </c>
       <c r="K4" t="n">
-        <v>2.54197064561926e-06</v>
+        <v>0.00000254197064561301</v>
       </c>
     </row>
   </sheetData>
@@ -1090,35 +1090,35 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.4227455859035e-13</v>
+        <v>0.000000000000540886779809568</v>
       </c>
       <c r="B2" t="n">
-        <v>4.59528248786256e-13</v>
+        <v>0.000000000000458834359395865</v>
       </c>
       <c r="C2" t="n">
-        <v>4.13558076672871e-13</v>
+        <v>0.000000000000413558076672871</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6.76542155630955e-15</v>
+        <v>0.00000000000000659194920871187</v>
       </c>
       <c r="B3" t="n">
-        <v>6.76542155630955e-15</v>
+        <v>0.00000000000000659194920871187</v>
       </c>
       <c r="C3" t="n">
-        <v>2.25514051876985e-15</v>
+        <v>0.00000000000000173472347597681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5.25551130392543e-10</v>
+        <v>0.000000000524659135581196</v>
       </c>
       <c r="B4" t="n">
-        <v>7.05490353636318e-10</v>
+        <v>0.000000000704293220965546</v>
       </c>
       <c r="C4" t="n">
-        <v>1.63312245671232e-10</v>
+        <v>0.000000000163032781719252</v>
       </c>
     </row>
   </sheetData>
